--- a/WorkBot/refactor/data/orders/Hill & Markes/CompletedOrders/Hill & Markes_Triphammer_2025-08-02.xlsx
+++ b/WorkBot/refactor/data/orders/Hill & Markes/CompletedOrders/Hill & Markes_Triphammer_2025-08-02.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,222 +556,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ANPLC4F</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lid Anchor - 24/32oz (Flat)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>66.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ANPLC4LD</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lid Anchor - 24/32oz (Dome)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>56.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>56.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ANPM424</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Container - Anchor (24oz)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>47.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4541602</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Container - Anchor (16oz)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TS12</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tamper Evident - 12oz Square</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>38.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.78</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TS16</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Tamper Evident - 16oz</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>41.88</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SAB52032T300</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Lid Salad - 24/32oz Sabert (Round)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>80.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SAB12032T300</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Cont Salad - 32oz Sabert (Round)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>176.10</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
